--- a/data/trans_orig/Q64D_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q64D_R-Habitat-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>7.007414481823726</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>19.10368082555491</v>
+        <v>19.10368082555492</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>6.366108296884128</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.474432424854351</v>
+        <v>4.44963604777918</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.071018008385479</v>
+        <v>5.89841863394002</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.798707699900453</v>
+        <v>7.041912154508591</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13.03655384461268</v>
+        <v>13.12791261961402</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.623144540733761</v>
+        <v>4.771263372869645</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>5.60748798191087</v>
+        <v>5.713956780480173</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>4.896863317989451</v>
+        <v>4.994311183215862</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>14.60658252776426</v>
+        <v>14.49907786967437</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>4.895353085588543</v>
+        <v>5.066209703700734</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6.556750818715741</v>
+        <v>6.39068063386375</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6.474487121456687</v>
+        <v>6.67722841337451</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>14.82031682927735</v>
+        <v>14.69930741039363</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.412092283801215</v>
+        <v>8.661687143034385</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.59155348093615</v>
+        <v>12.79885492356352</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.14921555065516</v>
+        <v>12.61475771933507</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21.18316739066652</v>
+        <v>21.61447497753488</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>10.34972336541446</v>
+        <v>10.47830977403544</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>11.15923628843152</v>
+        <v>11.24620750991153</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>10.03305427784797</v>
+        <v>10.44705608011448</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>25.64866237865791</v>
+        <v>26.06037797658205</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>8.152635995534398</v>
+        <v>8.255006336873766</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11.3294489884358</v>
+        <v>11.42720864135075</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10.2189716472028</v>
+        <v>10.36919661776538</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>21.37903737068974</v>
+        <v>21.29511231881963</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>8.334366927832306</v>
+        <v>8.244664982165773</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>6.067060733230924</v>
+        <v>6.080157184833598</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>9.622865342926717</v>
+        <v>10.08724329792908</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16.18606796111794</v>
+        <v>16.40159057368245</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>7.474070969660566</v>
+        <v>7.612578039847505</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>5.05538839863962</v>
+        <v>5.127229717774215</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>7.353124926179449</v>
+        <v>7.340795169254072</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>12.98639404217602</v>
+        <v>13.18377711768622</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>8.521137893837926</v>
+        <v>8.63710498534067</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6.034027628016391</v>
+        <v>6.167513237410927</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9.5352005662564</v>
+        <v>9.446334448161744</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>15.60479075940368</v>
+        <v>15.57920840084036</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>15.49442381673558</v>
+        <v>15.23767793455486</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.16950105212282</v>
+        <v>10.83111781868358</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17.41007668203975</v>
+        <v>17.89241055057294</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>23.28697267677831</v>
+        <v>23.53087435340425</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>12.82350575891083</v>
+        <v>13.10569210509387</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>9.652743385694695</v>
+        <v>9.655965604351449</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>12.52505882451861</v>
+        <v>12.17404685308296</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>18.54754971001704</v>
+        <v>18.54025113542849</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>13.47516698588238</v>
+        <v>13.8957989817006</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>9.189320008910718</v>
+        <v>9.283552468105317</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>14.572842495886</v>
+        <v>14.64533179094004</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>20.25546860186216</v>
+        <v>20.42444165911009</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.960557938744391</v>
+        <v>8.158525646968462</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>8.294865930687724</v>
+        <v>8.071609290147864</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.709927530859064</v>
+        <v>6.051052429004769</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10.48088270940754</v>
+        <v>10.6457822730123</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>6.491876883962076</v>
+        <v>6.287832693591794</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.177505869792774</v>
+        <v>6.284662402602126</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>5.328107647399142</v>
+        <v>5.418347744078003</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>11.35357008338969</v>
+        <v>11.3439629103237</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>7.923754165786532</v>
+        <v>8.025725389455303</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>7.872318039176819</v>
+        <v>7.966553863898056</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6.198487790780031</v>
+        <v>6.042525366335398</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>11.75761333561732</v>
+        <v>11.69652275284286</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.08457922220227</v>
+        <v>12.90963833659896</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.52993668756003</v>
+        <v>14.93302543955836</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.21602573353704</v>
+        <v>10.63300052226829</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>17.12986560988895</v>
+        <v>17.24496149966242</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>12.0905867280912</v>
+        <v>11.61766798901233</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>12.55738101111532</v>
+        <v>12.48895907309203</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>9.190623301329124</v>
+        <v>9.421050295194261</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>17.56148496683985</v>
+        <v>17.12144541685774</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>11.65571903712871</v>
+        <v>11.79089250592796</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12.51568877151537</v>
+        <v>12.50294414997273</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9.35889164002427</v>
+        <v>9.197902979711616</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>16.14752637430775</v>
+        <v>16.13113313591005</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>15.50468537853619</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>18.8018186868943</v>
+        <v>18.80181868689429</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>10.11986615709385</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>9.147734671878673</v>
+        <v>9.325212564717582</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.859827597201262</v>
+        <v>6.81094632265943</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.325425743996029</v>
+        <v>7.361768546781075</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>18.41069746875247</v>
+        <v>18.7297893649019</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>6.232439178527608</v>
+        <v>6.123063092510161</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>7.640371035411391</v>
+        <v>7.769376037155766</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>12.15090068503565</v>
+        <v>11.8325696847789</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>15.7996615779627</v>
+        <v>15.72460832166248</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>8.598861581812045</v>
+        <v>8.593696780190394</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7.551037626104314</v>
+        <v>7.634922838544704</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10.22486626110908</v>
+        <v>10.22816154363685</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>18.25680299622371</v>
+        <v>18.18139505895823</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>14.44232600955524</v>
+        <v>14.66435460805159</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>11.19979075984092</v>
+        <v>11.00301562348974</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12.55012310279939</v>
+        <v>12.2544845108674</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>25.67101774216246</v>
+        <v>25.90212207658888</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>10.64973629363886</v>
+        <v>10.69971981997455</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>12.96730672444284</v>
+        <v>12.75973507646372</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>20.14988456627427</v>
+        <v>19.82076880857445</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>22.49355632801517</v>
+        <v>22.32475678417656</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>12.05496333753151</v>
+        <v>12.17340892262643</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>10.89913993581196</v>
+        <v>10.8216649982658</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>14.86748013146429</v>
+        <v>15.10424837757608</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>23.12197141911129</v>
+        <v>23.19495865582072</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>10.02413635760789</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18.46280067646454</v>
+        <v>18.46280067646455</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>8.592174409140638</v>
@@ -1225,7 +1225,7 @@
         <v>10.35706670702643</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>16.84994131419994</v>
+        <v>16.84994131419993</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>9.494764633712876</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.772071340641194</v>
+        <v>8.806802513868234</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.773153549678091</v>
+        <v>7.742572527849237</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8.682846301879605</v>
+        <v>8.793528421107371</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16.56624554243832</v>
+        <v>16.62793247066035</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>7.420301953738024</v>
+        <v>7.400011574387769</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>7.148887551375473</v>
+        <v>7.298179072733382</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>8.980026864733443</v>
+        <v>8.894911488758323</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>15.1574926698637</v>
+        <v>15.26457745649989</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>8.558674126504659</v>
+        <v>8.593964758242686</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7.791034728117315</v>
+        <v>7.805324830228534</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9.141017361941554</v>
+        <v>9.163266454368474</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>16.5048859860886</v>
+        <v>16.5458049781932</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.63925614828783</v>
+        <v>11.61667511259758</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.51788215341345</v>
+        <v>10.36562324500042</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.55308555737196</v>
+        <v>11.77505790133356</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>20.55373152906623</v>
+        <v>20.22937847485182</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>10.05444615010455</v>
+        <v>9.958067363933349</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>9.868716319399496</v>
+        <v>10.18312371736439</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>12.01270523099493</v>
+        <v>12.08507204335396</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>18.88737572690148</v>
+        <v>18.80180851088397</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>10.63534319580461</v>
+        <v>10.55205013455345</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>9.754396571892306</v>
+        <v>9.690600953216078</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>11.31308975245111</v>
+        <v>11.31228666118901</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>19.09614637217229</v>
+        <v>19.24326098474376</v>
       </c>
     </row>
     <row r="19">
